--- a/data/song_measurements_2017.xlsx
+++ b/data/song_measurements_2017.xlsx
@@ -15,6 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="171027"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -513,7 +514,7 @@
   <dimension ref="A1:AF13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11:E13"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -882,6 +883,39 @@
       <c r="E11" t="s">
         <v>41</v>
       </c>
+      <c r="J11">
+        <v>3</v>
+      </c>
+      <c r="K11">
+        <v>5</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>1</v>
+      </c>
+      <c r="N11">
+        <v>2</v>
+      </c>
+      <c r="S11">
+        <v>1</v>
+      </c>
+      <c r="T11">
+        <v>1</v>
+      </c>
+      <c r="U11">
+        <v>1</v>
+      </c>
+      <c r="Z11">
+        <v>1</v>
+      </c>
+      <c r="AA11">
+        <v>1</v>
+      </c>
+      <c r="AB11">
+        <v>2</v>
+      </c>
     </row>
     <row r="12" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
@@ -893,6 +927,30 @@
       <c r="E12" t="s">
         <v>41</v>
       </c>
+      <c r="J12">
+        <v>2</v>
+      </c>
+      <c r="K12">
+        <v>5</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>1</v>
+      </c>
+      <c r="N12">
+        <v>2</v>
+      </c>
+      <c r="S12">
+        <v>1</v>
+      </c>
+      <c r="T12">
+        <v>1</v>
+      </c>
+      <c r="U12">
+        <v>3</v>
+      </c>
     </row>
     <row r="13" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
@@ -903,6 +961,39 @@
       </c>
       <c r="E13" t="s">
         <v>41</v>
+      </c>
+      <c r="J13">
+        <v>3</v>
+      </c>
+      <c r="K13">
+        <v>5</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>1</v>
+      </c>
+      <c r="N13">
+        <v>2</v>
+      </c>
+      <c r="S13">
+        <v>1</v>
+      </c>
+      <c r="T13">
+        <v>1</v>
+      </c>
+      <c r="U13">
+        <v>1</v>
+      </c>
+      <c r="Z13">
+        <v>1</v>
+      </c>
+      <c r="AA13">
+        <v>1</v>
+      </c>
+      <c r="AB13">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/data/song_measurements_2017.xlsx
+++ b/data/song_measurements_2017.xlsx
@@ -15,7 +15,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="171027"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="28">
   <si>
     <t>Bird ID</t>
   </si>
@@ -36,18 +35,6 @@
     <t>song type</t>
   </si>
   <si>
-    <t>duration.s</t>
-  </si>
-  <si>
-    <t>maximum frequency.kHz</t>
-  </si>
-  <si>
-    <t>minimum frequency.kHz</t>
-  </si>
-  <si>
-    <t>average frequency by power</t>
-  </si>
-  <si>
     <t>number unique syllables</t>
   </si>
   <si>
@@ -66,63 +53,12 @@
     <t>num notes syllable 3</t>
   </si>
   <si>
-    <t>duration syl 1</t>
-  </si>
-  <si>
-    <t>max freq syl 1</t>
-  </si>
-  <si>
-    <t>min freq syl 1</t>
-  </si>
-  <si>
-    <t>avg freq by power syl 1</t>
-  </si>
-  <si>
-    <t>duration syl 2</t>
-  </si>
-  <si>
-    <t>max freq syl 2</t>
-  </si>
-  <si>
-    <t>min freq syl 2</t>
-  </si>
-  <si>
-    <t>duration syl 3</t>
-  </si>
-  <si>
-    <t>max freq syl 3</t>
-  </si>
-  <si>
-    <t>min freq syl 3</t>
-  </si>
-  <si>
-    <t>avg freq by power syl 2</t>
-  </si>
-  <si>
-    <t>avg freq by power syl 3</t>
-  </si>
-  <si>
-    <t>SRF08M03</t>
-  </si>
-  <si>
     <t>Total Num songs recorded</t>
   </si>
   <si>
     <t>Song selected</t>
   </si>
   <si>
-    <t>SRF08M03S01</t>
-  </si>
-  <si>
-    <t>SRF08M03S02</t>
-  </si>
-  <si>
-    <t>SRF08M03S03</t>
-  </si>
-  <si>
-    <t>buzzy</t>
-  </si>
-  <si>
     <t>total num notes syllable 1</t>
   </si>
   <si>
@@ -154,6 +90,24 @@
   </si>
   <si>
     <t>SRE26M04</t>
+  </si>
+  <si>
+    <t>SRE26M05</t>
+  </si>
+  <si>
+    <t>SRE26M03</t>
+  </si>
+  <si>
+    <t>SRE26M01</t>
+  </si>
+  <si>
+    <t>num unique notes syllable 4</t>
+  </si>
+  <si>
+    <t>num notes syllable 4</t>
+  </si>
+  <si>
+    <t>num reps syllable 4</t>
   </si>
 </sst>
 </file>
@@ -511,10 +465,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76FFBD3F-5CF0-45A1-926A-0E2E286B2362}">
-  <dimension ref="A1:AF13"/>
+  <dimension ref="A1:S17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13:P16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -522,372 +476,408 @@
     <col min="1" max="1" width="10.26953125" customWidth="1"/>
     <col min="2" max="3" width="14.26953125" customWidth="1"/>
     <col min="4" max="4" width="12.26953125" customWidth="1"/>
-    <col min="6" max="6" width="0" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="11.08984375" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="11.36328125" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="13.81640625" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="12.453125" customWidth="1"/>
-    <col min="11" max="12" width="13.1796875" customWidth="1"/>
-    <col min="13" max="13" width="13.81640625" customWidth="1"/>
-    <col min="14" max="14" width="14.7265625" customWidth="1"/>
-    <col min="15" max="18" width="14.7265625" hidden="1" customWidth="1"/>
-    <col min="19" max="19" width="13.1796875" customWidth="1"/>
-    <col min="20" max="20" width="14.7265625" customWidth="1"/>
-    <col min="22" max="22" width="14.26953125" hidden="1" customWidth="1"/>
-    <col min="23" max="23" width="0" hidden="1" customWidth="1"/>
-    <col min="24" max="24" width="15.54296875" hidden="1" customWidth="1"/>
-    <col min="25" max="25" width="18.26953125" hidden="1" customWidth="1"/>
-    <col min="26" max="26" width="18.26953125" customWidth="1"/>
-    <col min="29" max="32" width="0" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="12.453125" customWidth="1"/>
+    <col min="7" max="8" width="13.1796875" customWidth="1"/>
+    <col min="9" max="9" width="13.81640625" customWidth="1"/>
+    <col min="10" max="10" width="14.7265625" customWidth="1"/>
+    <col min="11" max="11" width="13.1796875" customWidth="1"/>
+    <col min="12" max="12" width="14.7265625" customWidth="1"/>
+    <col min="14" max="14" width="18.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:19" ht="58" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="S1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" t="s">
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2">
+        <v>9</v>
+      </c>
+      <c r="C2">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2">
+        <v>2</v>
+      </c>
+      <c r="G2">
+        <v>5</v>
+      </c>
+      <c r="H2">
+        <v>2</v>
+      </c>
+      <c r="I2">
+        <v>2</v>
+      </c>
+      <c r="J2">
+        <v>4</v>
+      </c>
+      <c r="K2">
+        <v>2</v>
+      </c>
+      <c r="L2">
+        <v>2</v>
+      </c>
+      <c r="M2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3">
+        <v>9</v>
+      </c>
+      <c r="C3">
         <v>3</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>4</v>
+      </c>
+      <c r="H3">
+        <v>2</v>
+      </c>
+      <c r="I3">
+        <v>2</v>
+      </c>
+      <c r="J3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4">
+        <v>9</v>
+      </c>
+      <c r="C4">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4">
         <v>5</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="H4">
+        <v>2</v>
+      </c>
+      <c r="I4">
+        <v>2</v>
+      </c>
+      <c r="J4">
+        <v>4</v>
+      </c>
+      <c r="K4">
+        <v>2</v>
+      </c>
+      <c r="L4">
+        <v>2</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5">
         <v>6</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="AD1" s="1" t="s">
+      <c r="E5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5">
+        <v>3</v>
+      </c>
+      <c r="G5">
+        <v>5</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>2</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>1</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="O5">
+        <v>1</v>
+      </c>
+      <c r="P5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
         <v>21</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="C6">
+        <v>4</v>
+      </c>
+      <c r="E6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
+      <c r="G6">
+        <v>5</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>2</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="E7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7">
+        <v>3</v>
+      </c>
+      <c r="G7">
+        <v>5</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>2</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>1</v>
+      </c>
+      <c r="N7">
+        <v>1</v>
+      </c>
+      <c r="O7">
+        <v>1</v>
+      </c>
+      <c r="P7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
         <v>22</v>
       </c>
-      <c r="AF1" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2">
-        <v>24</v>
-      </c>
-      <c r="C2">
-        <v>2</v>
-      </c>
-      <c r="D2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F2">
-        <v>1.409</v>
-      </c>
-      <c r="G2">
-        <v>5411.7</v>
-      </c>
-      <c r="H2">
-        <v>4510.8999999999996</v>
-      </c>
-      <c r="J2">
+      <c r="C9">
+        <v>4</v>
+      </c>
+      <c r="E9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
+      <c r="G9">
+        <v>5</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>4</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10">
         <v>3</v>
       </c>
-      <c r="K2">
-        <v>3</v>
-      </c>
-      <c r="L2">
-        <v>2</v>
-      </c>
-      <c r="M2">
-        <v>2</v>
-      </c>
-      <c r="N2">
-        <v>1</v>
-      </c>
-      <c r="O2">
-        <v>0.20799999999999999</v>
-      </c>
-      <c r="P2">
-        <v>5254.9</v>
-      </c>
-      <c r="Q2">
-        <v>4510.8999999999996</v>
-      </c>
-      <c r="S2">
-        <v>1</v>
-      </c>
-      <c r="T2">
-        <v>2</v>
-      </c>
-      <c r="U2">
-        <v>1</v>
-      </c>
-      <c r="V2">
-        <v>0.66</v>
-      </c>
-      <c r="W2">
-        <v>5164.3</v>
-      </c>
-      <c r="X2">
-        <v>4512.7</v>
-      </c>
-      <c r="Z2">
-        <v>2</v>
-      </c>
-      <c r="AA2">
-        <v>3</v>
-      </c>
-      <c r="AB2">
-        <v>1</v>
-      </c>
-      <c r="AC2">
-        <v>0.33200000000000002</v>
-      </c>
-      <c r="AD2">
-        <v>5409.3</v>
-      </c>
-      <c r="AE2">
-        <v>4635.2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3">
-        <v>24</v>
-      </c>
-      <c r="C3">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B4">
-        <v>24</v>
-      </c>
-      <c r="C4">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>37</v>
-      </c>
-      <c r="B7">
-        <v>9</v>
-      </c>
-      <c r="C7">
-        <v>8</v>
-      </c>
-      <c r="D7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E7" t="s">
-        <v>41</v>
-      </c>
-      <c r="J7">
-        <v>2</v>
-      </c>
-      <c r="K7">
+      <c r="E10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10">
+        <v>2</v>
+      </c>
+      <c r="G10">
         <v>5</v>
       </c>
-      <c r="L7">
-        <v>2</v>
-      </c>
-      <c r="M7">
-        <v>2</v>
-      </c>
-      <c r="N7">
-        <v>4</v>
-      </c>
-      <c r="S7">
-        <v>2</v>
-      </c>
-      <c r="T7">
-        <v>2</v>
-      </c>
-      <c r="U7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>37</v>
-      </c>
-      <c r="B8">
-        <v>9</v>
-      </c>
-      <c r="C8">
-        <v>3</v>
-      </c>
-      <c r="D8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E8" t="s">
-        <v>41</v>
-      </c>
-      <c r="J8">
-        <v>1</v>
-      </c>
-      <c r="K8">
-        <v>4</v>
-      </c>
-      <c r="L8">
-        <v>2</v>
-      </c>
-      <c r="M8">
-        <v>2</v>
-      </c>
-      <c r="N8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>37</v>
-      </c>
-      <c r="B9">
-        <v>9</v>
-      </c>
-      <c r="C9">
-        <v>6</v>
-      </c>
-      <c r="D9" t="s">
-        <v>40</v>
-      </c>
-      <c r="E9" t="s">
-        <v>41</v>
-      </c>
-      <c r="J9">
-        <v>2</v>
-      </c>
-      <c r="K9">
-        <v>5</v>
-      </c>
-      <c r="L9">
-        <v>2</v>
-      </c>
-      <c r="M9">
-        <v>2</v>
-      </c>
-      <c r="N9">
-        <v>4</v>
-      </c>
-      <c r="S9">
-        <v>2</v>
-      </c>
-      <c r="T9">
-        <v>2</v>
-      </c>
-      <c r="U9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>4</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="C11">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>41</v>
+        <v>20</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+      <c r="G11">
+        <v>4</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
       </c>
       <c r="J11">
         <v>3</v>
       </c>
       <c r="K11">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L11">
         <v>1</v>
@@ -895,108 +885,123 @@
       <c r="M11">
         <v>1</v>
       </c>
-      <c r="N11">
-        <v>2</v>
-      </c>
-      <c r="S11">
-        <v>1</v>
-      </c>
-      <c r="T11">
-        <v>1</v>
-      </c>
-      <c r="U11">
-        <v>1</v>
-      </c>
-      <c r="Z11">
-        <v>1</v>
-      </c>
-      <c r="AA11">
-        <v>1</v>
-      </c>
-      <c r="AB11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.35">
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="C12">
         <v>4</v>
       </c>
       <c r="E12" t="s">
-        <v>41</v>
+        <v>20</v>
+      </c>
+      <c r="F12">
+        <v>3</v>
+      </c>
+      <c r="G12">
+        <v>3</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
       </c>
       <c r="J12">
         <v>2</v>
       </c>
       <c r="K12">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N12">
-        <v>2</v>
-      </c>
-      <c r="S12">
-        <v>1</v>
-      </c>
-      <c r="T12">
-        <v>1</v>
-      </c>
-      <c r="U12">
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <v>1</v>
+      </c>
+      <c r="P12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="E13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>42</v>
-      </c>
-      <c r="C13">
-        <v>2</v>
-      </c>
-      <c r="E13" t="s">
-        <v>41</v>
+      <c r="G13">
+        <v>4</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
       </c>
       <c r="J13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K13">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N13">
-        <v>2</v>
-      </c>
-      <c r="S13">
-        <v>1</v>
-      </c>
-      <c r="T13">
-        <v>1</v>
-      </c>
-      <c r="U13">
-        <v>1</v>
-      </c>
-      <c r="Z13">
-        <v>1</v>
-      </c>
-      <c r="AA13">
-        <v>1</v>
-      </c>
-      <c r="AB13">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="O13">
+        <v>1</v>
+      </c>
+      <c r="P13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14">
+        <v>7</v>
+      </c>
+      <c r="E14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>